--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9495445b46084bd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4f16c34d8acd4756"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b6d8ed3421d4661"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R26ca35d17da0414c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{775801b2-0cd3-40d2-8184-f18d8c837ae8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{af5830dd-a268-4700-9d20-08a0084c0b06}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4f16c34d8acd4756"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9c669d81a4404b9f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R26ca35d17da0414c"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R664f04c5be7941e3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{af5830dd-a268-4700-9d20-08a0084c0b06}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{98600f37-fc01-4e11-92ff-bdbaeac9a5f5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9c669d81a4404b9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9bbe6a6ffb6e4264"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R664f04c5be7941e3"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re34fd6bb0de8442e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{98600f37-fc01-4e11-92ff-bdbaeac9a5f5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8d30e22f-204d-4f5e-bab5-1b200c9e11b4}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R139b725c677a4af6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rde19206f69a34e23"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4407484a2ff143cb"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77727ff7b1124ba4"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{700e1abe-c771-4e90-8528-521707e1ba72}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{39dcfb9c-717c-4bee-86ca-852fa39f57fd}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rde19206f69a34e23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2f735a66545b4cba"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77727ff7b1124ba4"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23e701dc789c4537"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{39dcfb9c-717c-4bee-86ca-852fa39f57fd}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0fc78f48-08dc-4fb0-9ae8-bcf10a22ec94}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2f735a66545b4cba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ref69db3d393f43e8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23e701dc789c4537"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8e7268020ac4f63"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0fc78f48-08dc-4fb0-9ae8-bcf10a22ec94}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a94c1b05-fa5e-48d5-aee2-7b5a57e9a392}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ref69db3d393f43e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7dddb6d616a4420b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8e7268020ac4f63"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb27c68154667434d"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a94c1b05-fa5e-48d5-aee2-7b5a57e9a392}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9400b201-5e1c-465b-9b22-b414bfa18487}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ref69db3d393f43e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R643a19e3a46b4878"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8e7268020ac4f63"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9ae1d63a298a4a48"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a94c1b05-fa5e-48d5-aee2-7b5a57e9a392}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5dfba861-649f-49e0-a9c3-8bf5502b4b6e}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7dddb6d616a4420b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf69aa1a0cfa340d6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb27c68154667434d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41bc453780eb495d"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9400b201-5e1c-465b-9b22-b414bfa18487}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{cfe6f697-b0c0-4cd0-b300-d6c70b725a18}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7dddb6d616a4420b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R88a59201e2384417"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb27c68154667434d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R40f7e3cdd032426b"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9400b201-5e1c-465b-9b22-b414bfa18487}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{44998f1c-18ae-45e9-b502-69eff566cef9}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf69aa1a0cfa340d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd447b62cef2049f2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41bc453780eb495d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0bfa54b822734694"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{cfe6f697-b0c0-4cd0-b300-d6c70b725a18}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{874c7bfc-83fa-4679-bebc-55e24af13289}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd447b62cef2049f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R59e9284a9c544ca0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0bfa54b822734694"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R879c590bb9734021"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{874c7bfc-83fa-4679-bebc-55e24af13289}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{224d5895-7945-4e4c-8fe4-c5f5c75254a0}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd447b62cef2049f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rae8da79043c24f36"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0bfa54b822734694"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Radb30220f29d44eb"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{874c7bfc-83fa-4679-bebc-55e24af13289}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b65dc72b-5c54-45bd-bb94-9ed4780adb8a}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd447b62cef2049f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R96898b5076ec4d61"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0bfa54b822734694"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7d618e623a5b40c8"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{874c7bfc-83fa-4679-bebc-55e24af13289}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{71e61a68-663a-4cd8-a270-e9ef6625b218}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd0da721299144aa0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6396203441134469"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5861a1c0e5a6404d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9f70d8cd3d394c81"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1db0cfa3-63af-465d-8dc6-2cabf85f46ad}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bc333373-1f4e-4008-8070-39f04c1dd4e7}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6396203441134469"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R445830df252c418d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9f70d8cd3d394c81"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R295553669f3846da"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bc333373-1f4e-4008-8070-39f04c1dd4e7}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d8aec38b-dcf9-4d0a-b4f1-c4d21084b2b4}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R445830df252c418d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rffe868a76d544ac4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R295553669f3846da"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62c0d9cf2ddb4ea3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d8aec38b-dcf9-4d0a-b4f1-c4d21084b2b4}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{97d55f29-a9cc-47c8-a522-8c47ec8653d8}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rffe868a76d544ac4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rcc3cce32ae794274"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62c0d9cf2ddb4ea3"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra545fc1dbf0e4123"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{97d55f29-a9cc-47c8-a522-8c47ec8653d8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{fcdc61ac-eb8d-4a7c-b639-2a35b41878ae}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rffe868a76d544ac4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R41f62b3e51834653"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62c0d9cf2ddb4ea3"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R696989db2b3b4742"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{97d55f29-a9cc-47c8-a522-8c47ec8653d8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{53e0d5c9-192f-42c3-b19c-0c567d7a16a9}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R41f62b3e51834653"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R82d238dee50d4de8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R696989db2b3b4742"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8904ca84bde04e5c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{53e0d5c9-192f-42c3-b19c-0c567d7a16a9}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7b29491d-8aa2-4630-9c57-e26c37727d30}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R82d238dee50d4de8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re23fe770ff6f4ef8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8904ca84bde04e5c"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R48decee9452d4551"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7b29491d-8aa2-4630-9c57-e26c37727d30}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dcdfcdad-c948-4c7a-9957-4ec7dddcbb2d}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re23fe770ff6f4ef8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6cc7c1a9b12049b7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R48decee9452d4551"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R753a84afede4475e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dcdfcdad-c948-4c7a-9957-4ec7dddcbb2d}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{43c559bb-2121-4096-ad3d-0fd90db223b6}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6cc7c1a9b12049b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbaaf57934535497f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R753a84afede4475e"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R32602979ab6447ef"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{43c559bb-2121-4096-ad3d-0fd90db223b6}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4119bbdc-1088-4cb2-aea1-33e6fc1a2d07}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbaaf57934535497f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2c260b076e8f44aa"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R32602979ab6447ef"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4714fda97a3431b"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4119bbdc-1088-4cb2-aea1-33e6fc1a2d07}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b4cc3226-725b-4233-8bb8-d0f25614f671}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2c260b076e8f44aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc8556d8ab803485f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4714fda97a3431b"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R819136dec0324f11"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b4cc3226-725b-4233-8bb8-d0f25614f671}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7dfa6d65-38ef-4094-a715-824cd33f50f9}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc8556d8ab803485f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R921b4bf7f85b44f9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R819136dec0324f11"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5445d75089024ea7"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7dfa6d65-38ef-4094-a715-824cd33f50f9}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7e044236-d5dc-4940-8607-73cd6ea4b1f5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R921b4bf7f85b44f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra0e1f37c886e4a7a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5445d75089024ea7"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3314753e540c4382"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7e044236-d5dc-4940-8607-73cd6ea4b1f5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{889a6c40-8c36-4d60-91c4-9795aa36ff2f}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra0e1f37c886e4a7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R114b3a5f102b43c4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3314753e540c4382"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R02cf5fc340494f6c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{889a6c40-8c36-4d60-91c4-9795aa36ff2f}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2432e1ca-5485-46bf-98b9-d2055d1638f5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R114b3a5f102b43c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5346b486d46c4e1a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R02cf5fc340494f6c"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R67b28ccf061549b8"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2432e1ca-5485-46bf-98b9-d2055d1638f5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e56bf192-fe8c-49bf-b655-9954012edd78}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5346b486d46c4e1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb9f3aa1e6f346dc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R67b28ccf061549b8"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58734557c5144e93"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e56bf192-fe8c-49bf-b655-9954012edd78}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bff3d839-15cc-4c2c-9b67-e435f98852cf}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Reb9f3aa1e6f346dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R661d21b35a60481b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58734557c5144e93"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc13d38fdbffb48ea"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bff3d839-15cc-4c2c-9b67-e435f98852cf}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a654d7f7-39a9-4c60-97c9-faa97e11af2f}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R661d21b35a60481b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7733e0c322694c7d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc13d38fdbffb48ea"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0980cb7197a4181"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a654d7f7-39a9-4c60-97c9-faa97e11af2f}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd5db51a-e30f-4b23-8036-fe91a390b018}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7733e0c322694c7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc66b16ece77d4d73"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0980cb7197a4181"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfb425553d24a457c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd5db51a-e30f-4b23-8036-fe91a390b018}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{34329fa5-b829-406f-a3bd-a2671775b6b8}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9153252556fa4ce7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf007c12ee3464281"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf55a0cc378e34441"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R37631732f75e4c5d"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d07888bf-6f1b-4966-a5f8-3c19e6eaa903}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7fd85190-af93-479d-bd9a-8c831af174c5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc66b16ece77d4d73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9153252556fa4ce7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfb425553d24a457c"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf55a0cc378e34441"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{34329fa5-b829-406f-a3bd-a2671775b6b8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d07888bf-6f1b-4966-a5f8-3c19e6eaa903}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf007c12ee3464281"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R95ff085b735541b9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R37631732f75e4c5d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cb4a420464148e1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7fd85190-af93-479d-bd9a-8c831af174c5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1ad61dc4-45db-4197-b9fd-f71ec5ffe11f}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R95ff085b735541b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R96b1af04a553409a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cb4a420464148e1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd482534708554f23"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1ad61dc4-45db-4197-b9fd-f71ec5ffe11f}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ab904afb-a54d-4e65-9c2e-76aec37a9404}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R96b1af04a553409a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2fc3466c987049d9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd482534708554f23"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64fb402b6ec84f44"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ab904afb-a54d-4e65-9c2e-76aec37a9404}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0a667c94-e0eb-4d24-bec7-34c6d11891fc}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2fc3466c987049d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R28931151c7e7475f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64fb402b6ec84f44"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f34a598a2b64b0d"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0a667c94-e0eb-4d24-bec7-34c6d11891fc}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c8ab9b97-261e-4ca6-8c38-7db8de0de1d0}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re0c79aaddc4644a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc40bf584e3e14f56"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R111ee02ec1084a43"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a930cb876cd4996"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd016427-830b-40cf-867f-2b4cfee0cbef}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{16e2ab2d-fe7e-4c5e-87d3-4fba4273fc34}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R28931151c7e7475f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re0c79aaddc4644a1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f34a598a2b64b0d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R111ee02ec1084a43"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c8ab9b97-261e-4ca6-8c38-7db8de0de1d0}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd016427-830b-40cf-867f-2b4cfee0cbef}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc40bf584e3e14f56"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1869de0178db4407"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a930cb876cd4996"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fd6cdb689b94f95"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{16e2ab2d-fe7e-4c5e-87d3-4fba4273fc34}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8a67fe00-616f-4070-aae6-011205df3c87}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1869de0178db4407"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1e69a7bded614791"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fd6cdb689b94f95"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R72b37e2d4a164f6a"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8a67fe00-616f-4070-aae6-011205df3c87}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1381032f-ebf8-4612-9a02-219f93fb647c}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1e69a7bded614791"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1e66bb70d6c24f3f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R72b37e2d4a164f6a"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6958110015194026"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1381032f-ebf8-4612-9a02-219f93fb647c}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4d7d6e2f-925e-4f70-ac18-382e9540b4d8}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1e66bb70d6c24f3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf77c3e8cdbcb4a95"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6958110015194026"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9e3f3262a0f64fe1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4d7d6e2f-925e-4f70-ac18-382e9540b4d8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6492926a-5117-4f4e-90e7-27af2aa76d18}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra7198b8a8c054a3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdd60033ddf9f4b55"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R662eea9844e54e23"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra04c811bb72f4403"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{458afc53-70b6-4b54-94a1-43a59fdd43d8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{48dd5799-35ec-435c-9b15-7a24c9852238}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdd60033ddf9f4b55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R27c4d498b8644d1e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra04c811bb72f4403"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8adba0c4925042c0"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{48dd5799-35ec-435c-9b15-7a24c9852238}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{52047c0e-dcc2-4391-9dfb-8c7554b27cc5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf77c3e8cdbcb4a95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra7198b8a8c054a3b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9e3f3262a0f64fe1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R662eea9844e54e23"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6492926a-5117-4f4e-90e7-27af2aa76d18}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{458afc53-70b6-4b54-94a1-43a59fdd43d8}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R27c4d498b8644d1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6ae69b0ad7be4123"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8adba0c4925042c0"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde16d69c4e6144ab"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{52047c0e-dcc2-4391-9dfb-8c7554b27cc5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9e34e415-bcf4-416b-a8c5-3dbab648763b}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6ae69b0ad7be4123"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf169797c8246427d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde16d69c4e6144ab"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4584082b8d554563"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9e34e415-bcf4-416b-a8c5-3dbab648763b}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4cb5caf6-f0a0-4006-9030-c302b12c707e}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf169797c8246427d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc393bcf37b064b85"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4584082b8d554563"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R995f5eafcc724c05"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4cb5caf6-f0a0-4006-9030-c302b12c707e}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d58ea47d-8a90-46fd-b3d6-f106417d8a25}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc393bcf37b064b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1ee731978d1945b2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R995f5eafcc724c05"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3ac11a6b31c4a13"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d58ea47d-8a90-46fd-b3d6-f106417d8a25}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4a95b9d5-2062-42b3-aab4-c40b61ef0871}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1ee731978d1945b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1c4c6a28d1944aae"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3ac11a6b31c4a13"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ef0334ea13d4aff"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4a95b9d5-2062-42b3-aab4-c40b61ef0871}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{eebe115d-a781-4345-b99c-2f57533ad4cf}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1c4c6a28d1944aae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R530d6bca194a4695"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ef0334ea13d4aff"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd0c907595b2b4441"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{eebe115d-a781-4345-b99c-2f57533ad4cf}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d89bf0cb-3842-4df4-a378-34cbce25f226}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R530d6bca194a4695"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb12ba5b3a6bb4ebc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd0c907595b2b4441"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58e21a7b2c284cc1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d89bf0cb-3842-4df4-a378-34cbce25f226}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b7abe915-e947-4fba-957e-c94e3457b5af}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R530d6bca194a4695"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra6a3747b132e46f8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd0c907595b2b4441"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad17c8b91e2f405a"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{d89bf0cb-3842-4df4-a378-34cbce25f226}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8cd9f935-22d8-4b10-89e8-a398916a6126}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb12ba5b3a6bb4ebc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re5c9ae0541a74b92"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58e21a7b2c284cc1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R95110f7dfb634305"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b7abe915-e947-4fba-957e-c94e3457b5af}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dcfeef7b-c40c-41ba-b5cd-4c2fb312d45d}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re5c9ae0541a74b92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2d4d248c7a574f5d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R95110f7dfb634305"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb43955f245b470b"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dcfeef7b-c40c-41ba-b5cd-4c2fb312d45d}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a1035496-aa7e-4e6f-a2d7-4ab9be3158a7}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2d4d248c7a574f5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc395061d1e7641a1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb43955f245b470b"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ce220ad201d4949"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a1035496-aa7e-4e6f-a2d7-4ab9be3158a7}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{509c94b6-6459-4a40-886c-018fbabefcac}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc395061d1e7641a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6d91b26649384345"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ce220ad201d4949"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcbaaf7205d1c42a0"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{509c94b6-6459-4a40-886c-018fbabefcac}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{f793bddf-b79a-4c14-9762-39e7b725d619}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6d91b26649384345"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R721bae370978431d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcbaaf7205d1c42a0"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd8d7e3797d44579"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{f793bddf-b79a-4c14-9762-39e7b725d619}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1086f244-e357-40b8-bd52-e67892fcd3e5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb12ba5b3a6bb4ebc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra75309a29c944472"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58e21a7b2c284cc1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra39da88feffc446a"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b7abe915-e947-4fba-957e-c94e3457b5af}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bfa84bb9-a7b5-4691-a4b4-882f172ecda9}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R721bae370978431d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc027420ed3f84557"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd8d7e3797d44579"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R97f19fd898e74a29"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1086f244-e357-40b8-bd52-e67892fcd3e5}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c47ead94-70b9-46ce-801b-b449afd39960}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc027420ed3f84557"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R954c73d37deb408c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R97f19fd898e74a29"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9990f5a3f27041c0"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c47ead94-70b9-46ce-801b-b449afd39960}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{309a7dd0-1f4c-4bb4-8438-5356fc606826}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R954c73d37deb408c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1fe0c336cb7a4782"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9990f5a3f27041c0"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc473da2b17794c2e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{309a7dd0-1f4c-4bb4-8438-5356fc606826}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3c86aab4-9393-40f6-91be-ed47d428ef3c}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rcf43def740ad43ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbccfb77c9291408f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50f9d2d5b84b4383"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R84d1a2bc8cff4370"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{43a81f95-5c2e-45f3-84ca-b09de6cdf5e1}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c6dcf9e7-f348-4dca-8280-6e87f8773316}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1fe0c336cb7a4782"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rcf43def740ad43ce"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc473da2b17794c2e"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R50f9d2d5b84b4383"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3c86aab4-9393-40f6-91be-ed47d428ef3c}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{43a81f95-5c2e-45f3-84ca-b09de6cdf5e1}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbccfb77c9291408f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re1234a0085fa4cc0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R84d1a2bc8cff4370"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4348d22846642f1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c6dcf9e7-f348-4dca-8280-6e87f8773316}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7215b84a-45cb-4510-931b-f1d23cab2450}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re1234a0085fa4cc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R48331e8bd5244f55"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4348d22846642f1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b668b1e777b4d2d"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7215b84a-45cb-4510-931b-f1d23cab2450}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{901f31da-1f22-49b1-863f-0cc7981960b8}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R48331e8bd5244f55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2ed15ad25f5c43ae"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b668b1e777b4d2d"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde452bbd7d894f59"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{901f31da-1f22-49b1-863f-0cc7981960b8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{513ffdc0-cc81-4b96-8e6b-739a5a4b73f3}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2ed15ad25f5c43ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7f842ed123434d7d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde452bbd7d894f59"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3e8e77e951e7487e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{513ffdc0-cc81-4b96-8e6b-739a5a4b73f3}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{01a0f3ff-6671-4534-b723-712b01b5864e}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2ed15ad25f5c43ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7838063aed464363"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde452bbd7d894f59"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a493d0ee293418f"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{513ffdc0-cc81-4b96-8e6b-739a5a4b73f3}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7907d8e0-c886-4c6f-94dc-9207edf1cb06}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd6b270f7564d4d79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdf81e7b09f904561"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b36bffcf7c24292"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfcc3514b57104a60"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{82f3ea27-c582-4d0e-bc13-582d348f59c7}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{27d0119f-28d3-474c-a8f9-34a997c5257e}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7838063aed464363"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbc7010e17e09472a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a493d0ee293418f"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rffc195fc19b24c7e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7907d8e0-c886-4c6f-94dc-9207edf1cb06}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e8a3d38a-0c0d-4f97-9897-95cb34917a34}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbc7010e17e09472a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9bbae722833e48c9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rffc195fc19b24c7e"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf28200f42c04db2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e8a3d38a-0c0d-4f97-9897-95cb34917a34}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c634f983-d17e-4bc3-8013-3d9c54c0135e}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9bbae722833e48c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5899db91765a447d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf28200f42c04db2"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R881a281f76b14858"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c634f983-d17e-4bc3-8013-3d9c54c0135e}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{61c32b76-c833-44da-a835-d3f58bc7437c}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5899db91765a447d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra76a4b1960434293"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R881a281f76b14858"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe25c38bbd1f4ab0"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{61c32b76-c833-44da-a835-d3f58bc7437c}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{cbb7c844-323b-49b0-a29c-bbe481cf34df}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7838063aed464363"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rda96bb35f12a4e65"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a493d0ee293418f"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R96a3c7479f8c412c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7907d8e0-c886-4c6f-94dc-9207edf1cb06}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd0e77c0-e80d-409d-b04a-f50abb10edf5}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra76a4b1960434293"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3bea88effc07431f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe25c38bbd1f4ab0"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8e24fa12a1914279"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{cbb7c844-323b-49b0-a29c-bbe481cf34df}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e2878bde-22a6-4a2c-bd3c-b0f264dd4b14}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3bea88effc07431f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf89e749a4d4342ec"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8e24fa12a1914279"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39c553d2e12943b3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e2878bde-22a6-4a2c-bd3c-b0f264dd4b14}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ac9e6e6c-b5dc-4b6a-8ae1-053f8baa0759}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf89e749a4d4342ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd6b270f7564d4d79"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39c553d2e12943b3"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b36bffcf7c24292"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ac9e6e6c-b5dc-4b6a-8ae1-053f8baa0759}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{82f3ea27-c582-4d0e-bc13-582d348f59c7}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/monstrApp/monstrApp/bin/Debug/Book1.xlsx
+++ b/monstrApp/monstrApp/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdf81e7b09f904561"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R22f1451365364e25"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfcc3514b57104a60"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ff88ae2e5204371"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{27d0119f-28d3-474c-a8f9-34a997c5257e}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a682bd93-dab1-457d-b43c-62de865f2bd9}">
   <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
